--- a/input/Example_Data.xlsx
+++ b/input/Example_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Periprem\Bundle optimisation tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\periprem_reporting\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{DF882602-4BED-46A6-9A36-39D746C31E78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB1A1B6-2E9A-45D1-9947-72E99802CADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="753" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="753" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -25,7 +25,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Tab 3 PERIPrem Optimisation'!$A$1:$X$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Tab 5_Transfer Optimisation'!$A$1:$X$43</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -7709,9 +7721,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7749,9 +7761,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7784,26 +7796,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7836,26 +7831,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8033,7 +8011,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8047,264 +8025,264 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="109.7265625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="109.77734375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
     </row>
   </sheetData>
@@ -8317,44 +8295,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG13" sqref="AG13"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="19" width="15.54296875" customWidth="1"/>
-    <col min="20" max="20" width="19.36328125" customWidth="1"/>
-    <col min="21" max="23" width="15.54296875" customWidth="1"/>
-    <col min="24" max="24" width="16.6328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.54296875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15.54296875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="32" width="15.54296875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="50.54296875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="2.54296875" style="44" customWidth="1"/>
-    <col min="35" max="35" width="14.54296875" style="44" customWidth="1"/>
-    <col min="36" max="36" width="50.54296875" style="44" customWidth="1"/>
-    <col min="37" max="37" width="31.7265625" style="44" customWidth="1"/>
-    <col min="38" max="38" width="10.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="62.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="20.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="2.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="8.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="44" max="48" width="2.54296875" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="50" max="54" width="2.54296875" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="56" max="61" width="2.54296875" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="63" max="64" width="2.54296875" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="8.54296875" hidden="1" customWidth="1"/>
+    <col min="1" max="19" width="15.5546875" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="23" width="15.5546875" customWidth="1"/>
+    <col min="24" max="24" width="16.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="32" width="15.5546875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="50.5546875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="2.5546875" style="44" customWidth="1"/>
+    <col min="35" max="35" width="14.5546875" style="44" customWidth="1"/>
+    <col min="36" max="36" width="50.5546875" style="44" customWidth="1"/>
+    <col min="37" max="37" width="31.77734375" style="44" customWidth="1"/>
+    <col min="38" max="38" width="10.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="62.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="20.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="2.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="8.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="44" max="48" width="2.5546875" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="50" max="54" width="2.5546875" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="56" max="61" width="2.5546875" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="63" max="64" width="2.5546875" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="8.5546875" hidden="1" customWidth="1"/>
     <col min="66" max="66" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="44.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:65" ht="44.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="86" t="s">
         <v>56</v>
       </c>
@@ -8395,7 +8373,7 @@
       <c r="AJ1" s="41"/>
       <c r="AK1" s="41"/>
     </row>
-    <row r="2" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
@@ -8434,7 +8412,7 @@
       <c r="AJ2" s="41"/>
       <c r="AK2" s="41"/>
     </row>
-    <row r="3" spans="1:65" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:65" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -8482,7 +8460,7 @@
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
     </row>
-    <row r="4" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -8526,7 +8504,7 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:65" ht="85.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:65" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="88" t="s">
         <v>44</v>
@@ -8597,7 +8575,7 @@
       <c r="AJ5" s="81"/>
       <c r="AK5" s="82"/>
     </row>
-    <row r="6" spans="1:65" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="14.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
@@ -8657,7 +8635,7 @@
       <c r="AJ6" s="41"/>
       <c r="AK6" s="41"/>
     </row>
-    <row r="7" spans="1:65" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="14.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>2</v>
       </c>
@@ -8707,7 +8685,7 @@
       <c r="AJ7" s="41"/>
       <c r="AK7" s="41"/>
     </row>
-    <row r="8" spans="1:65" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" ht="14.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
@@ -8801,7 +8779,7 @@
       <c r="AJ8" s="41"/>
       <c r="AK8" s="41"/>
     </row>
-    <row r="9" spans="1:65" ht="196" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" ht="207" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>59</v>
       </c>
@@ -8913,12 +8891,12 @@
       <c r="AM9" s="12"/>
       <c r="AN9" s="12"/>
     </row>
-    <row r="10" spans="1:65" ht="42.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>30</v>
@@ -9086,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
@@ -9261,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>29</v>
       </c>
@@ -9436,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="126.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>28</v>
       </c>
@@ -9603,7 +9581,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -9746,7 +9724,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -9889,7 +9867,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -10032,7 +10010,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -10175,7 +10153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -10318,7 +10296,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -10461,7 +10439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -10604,7 +10582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -10747,7 +10725,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -10887,7 +10865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -11030,7 +11008,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -11173,7 +11151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A25" s="34"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -11316,7 +11294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -11459,7 +11437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -11602,7 +11580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -11742,7 +11720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -11885,7 +11863,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -12028,7 +12006,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -12168,7 +12146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -12311,7 +12289,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -12454,7 +12432,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -12597,7 +12575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -12737,7 +12715,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -12880,7 +12858,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A37" s="34"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -13023,7 +13001,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -13166,7 +13144,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -13309,7 +13287,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A40" s="34"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -13452,7 +13430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
@@ -13595,7 +13573,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -13738,7 +13716,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -13881,7 +13859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -14024,7 +14002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A45" s="34"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -14167,7 +14145,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -14310,7 +14288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -14453,7 +14431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
@@ -14596,7 +14574,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A49" s="34"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -14739,7 +14717,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
@@ -14882,7 +14860,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
@@ -15028,7 +15006,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A52" s="34"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -15174,7 +15152,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -15320,7 +15298,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -15463,7 +15441,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -15606,7 +15584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -15749,7 +15727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -15892,7 +15870,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -16035,7 +16013,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -16178,7 +16156,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -16321,7 +16299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -16464,7 +16442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -16607,7 +16585,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -16750,7 +16728,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -16893,7 +16871,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -17036,7 +17014,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -17179,7 +17157,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -17322,7 +17300,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -17465,7 +17443,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -17608,7 +17586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -17757,7 +17735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -17908,7 +17886,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:65" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:65" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -17956,7 +17934,7 @@
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
     </row>
-    <row r="73" spans="1:65" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:65" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="36">
         <f>COUNTA(A10:A71)</f>
         <v>4</v>
@@ -18079,7 +18057,7 @@
       </c>
       <c r="AP73" s="1"/>
     </row>
-    <row r="74" spans="1:65" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:65" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -18184,7 +18162,7 @@
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
     </row>
-    <row r="75" spans="1:65" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:65" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -18230,7 +18208,7 @@
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
     </row>
-    <row r="76" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -18276,7 +18254,7 @@
       <c r="AO76" s="1"/>
       <c r="AP76" s="1"/>
     </row>
-    <row r="77" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -18322,7 +18300,7 @@
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
     </row>
-    <row r="78" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -18368,7 +18346,7 @@
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
     </row>
-    <row r="79" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -18414,7 +18392,7 @@
       <c r="AO79" s="1"/>
       <c r="AP79" s="1"/>
     </row>
-    <row r="80" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -18458,7 +18436,7 @@
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
     </row>
-    <row r="81" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -18502,7 +18480,7 @@
       <c r="AO81" s="1"/>
       <c r="AP81" s="1"/>
     </row>
-    <row r="82" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -18546,7 +18524,7 @@
       <c r="AO82" s="1"/>
       <c r="AP82" s="1"/>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -18585,7 +18563,7 @@
       <c r="AJ83" s="41"/>
       <c r="AK83" s="41"/>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -18624,7 +18602,7 @@
       <c r="AJ84" s="41"/>
       <c r="AK84" s="41"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -18663,7 +18641,7 @@
       <c r="AJ85" s="41"/>
       <c r="AK85" s="41"/>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -18702,7 +18680,7 @@
       <c r="AJ86" s="41"/>
       <c r="AK86" s="41"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -18741,7 +18719,7 @@
       <c r="AJ87" s="41"/>
       <c r="AK87" s="41"/>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -18780,7 +18758,7 @@
       <c r="AJ88" s="41"/>
       <c r="AK88" s="41"/>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -19581,19 +19559,19 @@
       <selection activeCell="N35" sqref="N35:O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="3.54296875" customWidth="1"/>
-    <col min="7" max="7" width="3.54296875" customWidth="1"/>
-    <col min="10" max="10" width="3.54296875" customWidth="1"/>
-    <col min="13" max="13" width="3.54296875" customWidth="1"/>
-    <col min="14" max="15" width="8.7265625" customWidth="1"/>
-    <col min="16" max="16" width="3.54296875" customWidth="1"/>
-    <col min="22" max="22" width="3.54296875" customWidth="1"/>
-    <col min="25" max="25" width="3.54296875" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="10" max="10" width="3.5546875" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" customWidth="1"/>
+    <col min="14" max="15" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="3.5546875" customWidth="1"/>
+    <col min="22" max="22" width="3.5546875" customWidth="1"/>
+    <col min="25" max="25" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:25" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="4:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="112" t="s">
         <v>105</v>
       </c>
@@ -19621,10 +19599,10 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="4:25" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="4:25" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="113" t="s">
         <v>42</v>
       </c>
@@ -19655,8 +19633,8 @@
       </c>
       <c r="X3" s="116"/>
     </row>
-    <row r="4" spans="4:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="97" t="s">
         <v>40</v>
       </c>
@@ -19694,7 +19672,7 @@
       <c r="X5" s="107"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="100"/>
       <c r="E6" s="101"/>
       <c r="F6" s="102"/>
@@ -19718,7 +19696,7 @@
       <c r="X6" s="109"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="100"/>
       <c r="E7" s="101"/>
       <c r="F7" s="102"/>
@@ -19742,7 +19720,7 @@
       <c r="X7" s="109"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="100"/>
       <c r="E8" s="101"/>
       <c r="F8" s="102"/>
@@ -19766,7 +19744,7 @@
       <c r="X8" s="109"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="103"/>
       <c r="E9" s="104"/>
       <c r="F9" s="105"/>
@@ -19790,7 +19768,7 @@
       <c r="X9" s="111"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -19813,7 +19791,7 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
     </row>
-    <row r="11" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="97" t="s">
         <v>89</v>
       </c>
@@ -19853,7 +19831,7 @@
       <c r="X11" s="107"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="100"/>
       <c r="E12" s="101"/>
       <c r="F12" s="102"/>
@@ -19879,7 +19857,7 @@
       <c r="X12" s="109"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="100"/>
       <c r="E13" s="101"/>
       <c r="F13" s="102"/>
@@ -19903,7 +19881,7 @@
       <c r="X13" s="109"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="100"/>
       <c r="E14" s="101"/>
       <c r="F14" s="102"/>
@@ -19927,7 +19905,7 @@
       <c r="X14" s="109"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="103"/>
       <c r="E15" s="104"/>
       <c r="F15" s="105"/>
@@ -19951,7 +19929,7 @@
       <c r="X15" s="111"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -19975,7 +19953,7 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="97" t="s">
         <v>41</v>
       </c>
@@ -20015,7 +19993,7 @@
       <c r="X17" s="107"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="100"/>
       <c r="E18" s="101"/>
       <c r="F18" s="102"/>
@@ -20041,7 +20019,7 @@
       <c r="X18" s="109"/>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="100"/>
       <c r="E19" s="101"/>
       <c r="F19" s="102"/>
@@ -20065,7 +20043,7 @@
       <c r="X19" s="109"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="100"/>
       <c r="E20" s="101"/>
       <c r="F20" s="102"/>
@@ -20089,7 +20067,7 @@
       <c r="X20" s="109"/>
       <c r="Y20" s="7"/>
     </row>
-    <row r="21" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="103"/>
       <c r="E21" s="104"/>
       <c r="F21" s="105"/>
@@ -20113,7 +20091,7 @@
       <c r="X21" s="111"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -20136,7 +20114,7 @@
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
     </row>
-    <row r="23" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="97" t="s">
         <v>90</v>
       </c>
@@ -20176,7 +20154,7 @@
       <c r="X23" s="107"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="100"/>
       <c r="E24" s="101"/>
       <c r="F24" s="102"/>
@@ -20202,7 +20180,7 @@
       <c r="X24" s="109"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="100"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102"/>
@@ -20226,7 +20204,7 @@
       <c r="X25" s="109"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="100"/>
       <c r="E26" s="101"/>
       <c r="F26" s="102"/>
@@ -20250,7 +20228,7 @@
       <c r="X26" s="109"/>
       <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="103"/>
       <c r="E27" s="104"/>
       <c r="F27" s="105"/>
@@ -20274,7 +20252,7 @@
       <c r="X27" s="111"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -20297,7 +20275,7 @@
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
     </row>
-    <row r="29" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="97" t="s">
         <v>91</v>
       </c>
@@ -20335,7 +20313,7 @@
       <c r="X29" s="107"/>
       <c r="Y29" s="7"/>
     </row>
-    <row r="30" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="100"/>
       <c r="E30" s="101"/>
       <c r="F30" s="102"/>
@@ -20360,7 +20338,7 @@
       <c r="X30" s="109"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="100"/>
       <c r="E31" s="101"/>
       <c r="F31" s="102"/>
@@ -20383,7 +20361,7 @@
       <c r="X31" s="109"/>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="100"/>
       <c r="E32" s="101"/>
       <c r="F32" s="102"/>
@@ -20406,7 +20384,7 @@
       <c r="X32" s="109"/>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="103"/>
       <c r="E33" s="104"/>
       <c r="F33" s="105"/>
@@ -20429,8 +20407,8 @@
       <c r="X33" s="111"/>
       <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="97" t="s">
         <v>125</v>
       </c>
@@ -20467,7 +20445,7 @@
       </c>
       <c r="X35" s="143"/>
     </row>
-    <row r="36" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="100"/>
       <c r="E36" s="101"/>
       <c r="F36" s="102"/>
@@ -20489,7 +20467,7 @@
       <c r="W36" s="144"/>
       <c r="X36" s="145"/>
     </row>
-    <row r="37" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="100"/>
       <c r="E37" s="101"/>
       <c r="F37" s="102"/>
@@ -20510,7 +20488,7 @@
       <c r="W37" s="147"/>
       <c r="X37" s="147"/>
     </row>
-    <row r="38" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="100"/>
       <c r="E38" s="101"/>
       <c r="F38" s="102"/>
@@ -20537,7 +20515,7 @@
       </c>
       <c r="X38" s="133"/>
     </row>
-    <row r="39" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="103"/>
       <c r="E39" s="104"/>
       <c r="F39" s="105"/>
@@ -20860,25 +20838,25 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="24" width="15.54296875" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="2.54296875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.54296875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="33" width="15.54296875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="50.54296875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="2.54296875" style="44" customWidth="1"/>
-    <col min="36" max="36" width="50.54296875" style="44" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="50.54296875" style="44" customWidth="1"/>
-    <col min="38" max="38" width="33.7265625" style="44" hidden="1" customWidth="1"/>
-    <col min="39" max="41" width="20.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="43" width="8.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="44" max="69" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="1" max="24" width="15.5546875" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="2.5546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="33" width="15.5546875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="50.5546875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5546875" style="44" customWidth="1"/>
+    <col min="36" max="36" width="50.5546875" style="44" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="50.5546875" style="44" customWidth="1"/>
+    <col min="38" max="38" width="33.77734375" style="44" hidden="1" customWidth="1"/>
+    <col min="39" max="41" width="20.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="8.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="69" width="8.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="159" t="s">
         <v>123</v>
       </c>
@@ -20920,7 +20898,7 @@
       <c r="AK1" s="41"/>
       <c r="AL1" s="41"/>
     </row>
-    <row r="2" spans="1:69" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
@@ -20960,7 +20938,7 @@
       <c r="AK2" s="41"/>
       <c r="AL2" s="41"/>
     </row>
-    <row r="3" spans="1:69" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:69" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -21005,7 +20983,7 @@
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
     </row>
-    <row r="4" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -21050,7 +21028,7 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:69" ht="84" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="155" t="s">
         <v>114</v>
@@ -21122,7 +21100,7 @@
       <c r="AK5" s="154"/>
       <c r="AL5" s="154"/>
     </row>
-    <row r="6" spans="1:69" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:69" ht="14.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
@@ -21182,7 +21160,7 @@
       <c r="AK6" s="41"/>
       <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:69" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:69" ht="14.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>2</v>
       </c>
@@ -21232,7 +21210,7 @@
       <c r="AK7" s="41"/>
       <c r="AL7" s="41"/>
     </row>
-    <row r="8" spans="1:69" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:69" ht="14.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
@@ -21326,7 +21304,7 @@
       <c r="AK8" s="41"/>
       <c r="AL8" s="41"/>
     </row>
-    <row r="9" spans="1:69" ht="196" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:69" ht="207" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>59</v>
       </c>
@@ -21441,7 +21419,7 @@
       <c r="AN9" s="12"/>
       <c r="AO9" s="12"/>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -21575,7 +21553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" s="65"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
@@ -21709,7 +21687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" s="65"/>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
@@ -21843,7 +21821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
@@ -21974,7 +21952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -22126,7 +22104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
@@ -22278,7 +22256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
@@ -22430,7 +22408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
@@ -22582,7 +22560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -22734,7 +22712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
@@ -22886,7 +22864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
@@ -23038,7 +23016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
@@ -23190,7 +23168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="65"/>
       <c r="C22" s="65"/>
@@ -23339,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -23491,7 +23469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A24" s="65"/>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
@@ -23643,7 +23621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
       <c r="B25" s="65"/>
       <c r="C25" s="65"/>
@@ -23795,7 +23773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A26" s="65"/>
       <c r="B26" s="65"/>
       <c r="C26" s="65"/>
@@ -23947,7 +23925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A27" s="65"/>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
@@ -24099,7 +24077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
       <c r="B28" s="65"/>
       <c r="C28" s="65"/>
@@ -24248,7 +24226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A29" s="65"/>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
@@ -24400,7 +24378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -24552,7 +24530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
@@ -24701,7 +24679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A32" s="65"/>
       <c r="B32" s="65"/>
       <c r="C32" s="65"/>
@@ -24853,7 +24831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -25005,7 +24983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A34" s="65"/>
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
@@ -25157,7 +25135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
       <c r="C35" s="65"/>
@@ -25306,7 +25284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A36" s="65"/>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -25458,7 +25436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="65"/>
       <c r="C37" s="65"/>
@@ -25610,7 +25588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A38" s="65"/>
       <c r="B38" s="65"/>
       <c r="C38" s="65"/>
@@ -25762,7 +25740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A39" s="65"/>
       <c r="B39" s="65"/>
       <c r="C39" s="65"/>
@@ -25914,7 +25892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A40" s="65"/>
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
@@ -26066,7 +26044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
       <c r="C41" s="65"/>
@@ -26218,7 +26196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
@@ -26370,7 +26348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A43" s="65"/>
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
@@ -26522,7 +26500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="65"/>
       <c r="C44" s="65"/>
@@ -26674,7 +26652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A45" s="65"/>
       <c r="B45" s="65"/>
       <c r="C45" s="65"/>
@@ -26826,7 +26804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A46" s="65"/>
       <c r="B46" s="65"/>
       <c r="C46" s="65"/>
@@ -26978,7 +26956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
       <c r="B47" s="65"/>
       <c r="C47" s="65"/>
@@ -27130,7 +27108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
@@ -27282,7 +27260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A49" s="65"/>
       <c r="B49" s="65"/>
       <c r="C49" s="65"/>
@@ -27434,7 +27412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A50" s="65"/>
       <c r="B50" s="65"/>
       <c r="C50" s="65"/>
@@ -27583,7 +27561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A51" s="65"/>
       <c r="B51" s="65"/>
       <c r="C51" s="65"/>
@@ -27735,7 +27713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="65"/>
       <c r="C52" s="65"/>
@@ -27887,7 +27865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="65"/>
       <c r="C53" s="65"/>
@@ -28036,7 +28014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
@@ -28185,7 +28163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
       <c r="B55" s="65"/>
       <c r="C55" s="65"/>
@@ -28334,7 +28312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A56" s="65"/>
       <c r="B56" s="65"/>
       <c r="C56" s="65"/>
@@ -28483,7 +28461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="65"/>
       <c r="C57" s="65"/>
@@ -28632,7 +28610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
       <c r="B58" s="65"/>
       <c r="C58" s="65"/>
@@ -28781,7 +28759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="65"/>
       <c r="C59" s="65"/>
@@ -28930,7 +28908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A60" s="65"/>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
@@ -29079,7 +29057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="65"/>
       <c r="C61" s="65"/>
@@ -29228,7 +29206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A62" s="65"/>
       <c r="B62" s="65"/>
       <c r="C62" s="65"/>
@@ -29377,7 +29355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A63" s="65"/>
       <c r="B63" s="65"/>
       <c r="C63" s="65"/>
@@ -29526,7 +29504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A64" s="65"/>
       <c r="B64" s="65"/>
       <c r="C64" s="65"/>
@@ -29675,7 +29653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A65" s="65"/>
       <c r="B65" s="65"/>
       <c r="C65" s="65"/>
@@ -29824,7 +29802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A66" s="65"/>
       <c r="B66" s="65"/>
       <c r="C66" s="65"/>
@@ -29973,7 +29951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A67" s="65"/>
       <c r="B67" s="65"/>
       <c r="C67" s="65"/>
@@ -30122,7 +30100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A68" s="65"/>
       <c r="B68" s="65"/>
       <c r="C68" s="65"/>
@@ -30271,7 +30249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A69" s="65"/>
       <c r="B69" s="65"/>
       <c r="C69" s="65"/>
@@ -30420,7 +30398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="65"/>
       <c r="B70" s="65"/>
       <c r="C70" s="65"/>
@@ -30576,7 +30554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="65"/>
       <c r="B71" s="65"/>
       <c r="C71" s="65"/>
@@ -30734,7 +30712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:68" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:68" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -30789,7 +30767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:68" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:68" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="36">
         <f>COUNTA(A10:A71)</f>
         <v>0</v>
@@ -30911,7 +30889,7 @@
       </c>
       <c r="AQ73" s="1"/>
     </row>
-    <row r="74" spans="1:68" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:68" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -31015,7 +30993,7 @@
       <c r="AP74" s="1"/>
       <c r="AQ74" s="1"/>
     </row>
-    <row r="75" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -31060,7 +31038,7 @@
       <c r="AP75" s="1"/>
       <c r="AQ75" s="1"/>
     </row>
-    <row r="76" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -31105,7 +31083,7 @@
       <c r="AP76" s="1"/>
       <c r="AQ76" s="1"/>
     </row>
-    <row r="77" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -31150,7 +31128,7 @@
       <c r="AP77" s="1"/>
       <c r="AQ77" s="1"/>
     </row>
-    <row r="78" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -31195,7 +31173,7 @@
       <c r="AP78" s="1"/>
       <c r="AQ78" s="1"/>
     </row>
-    <row r="79" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -31240,7 +31218,7 @@
       <c r="AP79" s="1"/>
       <c r="AQ79" s="1"/>
     </row>
-    <row r="80" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -31285,7 +31263,7 @@
       <c r="AP80" s="1"/>
       <c r="AQ80" s="1"/>
     </row>
-    <row r="81" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -31330,7 +31308,7 @@
       <c r="AP81" s="1"/>
       <c r="AQ81" s="1"/>
     </row>
-    <row r="82" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -31375,7 +31353,7 @@
       <c r="AP82" s="1"/>
       <c r="AQ82" s="1"/>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -31415,7 +31393,7 @@
       <c r="AK83" s="41"/>
       <c r="AL83" s="41"/>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -31455,7 +31433,7 @@
       <c r="AK84" s="41"/>
       <c r="AL84" s="41"/>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -31495,7 +31473,7 @@
       <c r="AK85" s="41"/>
       <c r="AL85" s="41"/>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -31535,7 +31513,7 @@
       <c r="AK86" s="41"/>
       <c r="AL86" s="41"/>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -31575,7 +31553,7 @@
       <c r="AK87" s="41"/>
       <c r="AL87" s="41"/>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -31615,7 +31593,7 @@
       <c r="AK88" s="41"/>
       <c r="AL88" s="41"/>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -32286,19 +32264,19 @@
       <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="3.54296875" customWidth="1"/>
-    <col min="7" max="7" width="3.54296875" customWidth="1"/>
-    <col min="10" max="10" width="3.54296875" customWidth="1"/>
-    <col min="13" max="13" width="3.54296875" customWidth="1"/>
-    <col min="14" max="15" width="8.7265625" customWidth="1"/>
-    <col min="16" max="16" width="3.54296875" customWidth="1"/>
-    <col min="22" max="22" width="3.54296875" customWidth="1"/>
-    <col min="25" max="25" width="3.54296875" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="10" max="10" width="3.5546875" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" customWidth="1"/>
+    <col min="14" max="15" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="3.5546875" customWidth="1"/>
+    <col min="22" max="22" width="3.5546875" customWidth="1"/>
+    <col min="25" max="25" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="163" t="s">
         <v>115</v>
       </c>
@@ -32326,8 +32304,8 @@
       <c r="W1" s="163"/>
       <c r="X1" s="163"/>
     </row>
-    <row r="2" spans="1:25" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:25" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="112" t="s">
         <v>105</v>
       </c>
@@ -32355,10 +32333,10 @@
       <c r="W3" s="50"/>
       <c r="X3" s="50"/>
     </row>
-    <row r="4" spans="1:25" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:25" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="113" t="s">
         <v>42</v>
       </c>
@@ -32389,7 +32367,7 @@
       </c>
       <c r="X5" s="116"/>
     </row>
-    <row r="6" spans="1:25" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
       <c r="F6" s="61"/>
@@ -32410,7 +32388,7 @@
       <c r="W6" s="64"/>
       <c r="X6" s="64"/>
     </row>
-    <row r="7" spans="1:25" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="164" t="s">
         <v>119</v>
       </c>
@@ -32441,8 +32419,8 @@
       </c>
       <c r="X7" s="116"/>
     </row>
-    <row r="8" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="97" t="s">
         <v>40</v>
       </c>
@@ -32480,7 +32458,7 @@
       <c r="X9" s="107"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="100"/>
       <c r="E10" s="101"/>
       <c r="F10" s="102"/>
@@ -32504,7 +32482,7 @@
       <c r="X10" s="109"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="100"/>
       <c r="E11" s="101"/>
       <c r="F11" s="102"/>
@@ -32528,7 +32506,7 @@
       <c r="X11" s="109"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="100"/>
       <c r="E12" s="101"/>
       <c r="F12" s="102"/>
@@ -32552,7 +32530,7 @@
       <c r="X12" s="109"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="103"/>
       <c r="E13" s="104"/>
       <c r="F13" s="105"/>
@@ -32576,7 +32554,7 @@
       <c r="X13" s="111"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -32599,7 +32577,7 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
     </row>
-    <row r="15" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="97" t="s">
         <v>89</v>
       </c>
@@ -32639,7 +32617,7 @@
       <c r="X15" s="107"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="100"/>
       <c r="E16" s="101"/>
       <c r="F16" s="102"/>
@@ -32665,7 +32643,7 @@
       <c r="X16" s="109"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="100"/>
       <c r="E17" s="101"/>
       <c r="F17" s="102"/>
@@ -32689,7 +32667,7 @@
       <c r="X17" s="109"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="100"/>
       <c r="E18" s="101"/>
       <c r="F18" s="102"/>
@@ -32713,7 +32691,7 @@
       <c r="X18" s="109"/>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="103"/>
       <c r="E19" s="104"/>
       <c r="F19" s="105"/>
@@ -32737,7 +32715,7 @@
       <c r="X19" s="111"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -32761,7 +32739,7 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="7"/>
     </row>
-    <row r="21" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="97" t="s">
         <v>41</v>
       </c>
@@ -32801,7 +32779,7 @@
       <c r="X21" s="107"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="100"/>
       <c r="E22" s="101"/>
       <c r="F22" s="102"/>
@@ -32827,7 +32805,7 @@
       <c r="X22" s="109"/>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="100"/>
       <c r="E23" s="101"/>
       <c r="F23" s="102"/>
@@ -32851,7 +32829,7 @@
       <c r="X23" s="109"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="100"/>
       <c r="E24" s="101"/>
       <c r="F24" s="102"/>
@@ -32875,7 +32853,7 @@
       <c r="X24" s="109"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="103"/>
       <c r="E25" s="104"/>
       <c r="F25" s="105"/>
@@ -32899,7 +32877,7 @@
       <c r="X25" s="111"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -32922,7 +32900,7 @@
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
     </row>
-    <row r="27" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="97" t="s">
         <v>90</v>
       </c>
@@ -32962,7 +32940,7 @@
       <c r="X27" s="107"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="100"/>
       <c r="E28" s="101"/>
       <c r="F28" s="102"/>
@@ -32988,7 +32966,7 @@
       <c r="X28" s="109"/>
       <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="100"/>
       <c r="E29" s="101"/>
       <c r="F29" s="102"/>
@@ -33012,7 +32990,7 @@
       <c r="X29" s="109"/>
       <c r="Y29" s="7"/>
     </row>
-    <row r="30" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="100"/>
       <c r="E30" s="101"/>
       <c r="F30" s="102"/>
@@ -33036,7 +33014,7 @@
       <c r="X30" s="109"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="103"/>
       <c r="E31" s="104"/>
       <c r="F31" s="105"/>
@@ -33060,7 +33038,7 @@
       <c r="X31" s="111"/>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -33083,7 +33061,7 @@
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
     </row>
-    <row r="33" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="97" t="s">
         <v>91</v>
       </c>
@@ -33121,7 +33099,7 @@
       <c r="X33" s="107"/>
       <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="100"/>
       <c r="E34" s="101"/>
       <c r="F34" s="102"/>
@@ -33146,7 +33124,7 @@
       <c r="X34" s="109"/>
       <c r="Y34" s="7"/>
     </row>
-    <row r="35" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="100"/>
       <c r="E35" s="101"/>
       <c r="F35" s="102"/>
@@ -33169,7 +33147,7 @@
       <c r="X35" s="109"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="100"/>
       <c r="E36" s="101"/>
       <c r="F36" s="102"/>
@@ -33192,7 +33170,7 @@
       <c r="X36" s="109"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
       <c r="F37" s="105"/>
@@ -33215,8 +33193,8 @@
       <c r="X37" s="111"/>
       <c r="Y37" s="7"/>
     </row>
-    <row r="38" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="97" t="s">
         <v>125</v>
       </c>
@@ -33253,7 +33231,7 @@
       </c>
       <c r="X39" s="143"/>
     </row>
-    <row r="40" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="100"/>
       <c r="E40" s="101"/>
       <c r="F40" s="102"/>
@@ -33275,7 +33253,7 @@
       <c r="W40" s="144"/>
       <c r="X40" s="145"/>
     </row>
-    <row r="41" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="100"/>
       <c r="E41" s="101"/>
       <c r="F41" s="102"/>
@@ -33296,7 +33274,7 @@
       <c r="W41" s="147"/>
       <c r="X41" s="147"/>
     </row>
-    <row r="42" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="100"/>
       <c r="E42" s="101"/>
       <c r="F42" s="102"/>
@@ -33323,7 +33301,7 @@
       </c>
       <c r="X42" s="133"/>
     </row>
-    <row r="43" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="103"/>
       <c r="E43" s="104"/>
       <c r="F43" s="105"/>
@@ -33594,18 +33572,18 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.26953125" customWidth="1"/>
-    <col min="3" max="3" width="94.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="94.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72" t="s">
         <v>132</v>
       </c>
@@ -33616,7 +33594,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
         <v>154</v>
       </c>
@@ -33627,7 +33605,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="72">
         <v>1.1000000000000001</v>
       </c>
@@ -33638,7 +33616,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="75" t="s">
         <v>137</v>
       </c>
@@ -33649,7 +33627,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="75" t="s">
         <v>139</v>
       </c>
@@ -33660,7 +33638,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="75" t="s">
         <v>141</v>
       </c>
@@ -33671,7 +33649,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
         <v>143</v>
       </c>
@@ -33682,7 +33660,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>153</v>
       </c>
@@ -33693,7 +33671,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73">
         <v>2.1</v>
       </c>
@@ -33704,7 +33682,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="72">
         <v>2.2000000000000002</v>
       </c>
@@ -33715,7 +33693,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="72">
         <v>2.2999999999999998</v>
       </c>
@@ -33726,7 +33704,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="72">
         <v>2.4</v>
       </c>
@@ -33737,7 +33715,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="73" t="s">
         <v>152</v>
       </c>
@@ -33748,7 +33726,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="73" t="s">
         <v>151</v>
       </c>
@@ -33759,10 +33737,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34041,5 +34019,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E16A4CC-44C3-45F8-92D7-3E2593E387DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E16A4CC-44C3-45F8-92D7-3E2593E387DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca1ae4d3-cfa2-4a9e-9f12-9820a4861d66"/>
+    <ds:schemaRef ds:uri="a7c1ee3a-7feb-4f17-8725-9b58cfa38fa2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>